--- a/Mifos Automation Excels/Loan Product/4650-DISB01JAN2015-RESCHDULE01FEB2015-INSTRESCHDULE15FEB2015.xlsx
+++ b/Mifos Automation Excels/Loan Product/4650-DISB01JAN2015-RESCHDULE01FEB2015-INSTRESCHDULE15FEB2015.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="29">
   <si>
     <t>productname</t>
   </si>
@@ -85,9 +85,6 @@
   </si>
   <si>
     <t>Same as repayment period</t>
-  </si>
-  <si>
-    <t>allowPartialPeriodInterestCalcualtion</t>
   </si>
   <si>
     <t>daysinyear</t>
@@ -549,10 +546,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B19"/>
+  <dimension ref="A1:B18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="A17" sqref="A17:XFD17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -566,7 +563,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -574,7 +571,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -694,23 +691,15 @@
         <v>23</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>4</v>
+        <v>24</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B18" s="10" t="s">
         <v>24</v>
-      </c>
-      <c r="B18" s="10" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="B19" s="10" t="s">
-        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -734,10 +723,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
